--- a/data/rda_sem_pedido_resumo.xlsx
+++ b/data/rda_sem_pedido_resumo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101502912.0</t>
+          <t>101464156.0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24958.63</v>
+        <v>30000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -490,11 +490,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02B24154_SS_002</t>
+          <t>02B24154_AF_001</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45853</v>
+        <v>45674</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -510,24 +510,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>101464156.0</t>
+          <t>101449165.0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30000</v>
+        <v>83958.48</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>241B97N_02B0_25B57X</t>
+          <t>241B88N_02B0_25B57X</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02B24154_AF_001</t>
+          <t>02B24147_AF_001</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45674</v>
+        <v>45602</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -543,11 +543,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>101449165.0</t>
+          <t>101449212.0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83958.48</v>
+        <v>85034.39999999999</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -576,11 +576,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>101449212.0</t>
+          <t>101442396.0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85034.39999999999</v>
+        <v>609000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45602</v>
+        <v>45568</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -601,39 +601,6 @@
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>G164</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>101442396.0</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>85000</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>241B88N_02B0_25B57X</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>02B24147_AF_001</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45568</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ReqC</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>G164</t>
         </is>

--- a/data/rda_sem_pedido_resumo.xlsx
+++ b/data/rda_sem_pedido_resumo.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101464156.0</t>
+          <t>101502912.0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30000</v>
+        <v>22649.96</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -490,11 +490,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02B24154_AF_001</t>
+          <t>02B24154_SS_002</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45674</v>
+        <v>45853</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -510,24 +510,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>101449165.0</t>
+          <t>101464156.0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83958.48</v>
+        <v>30000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>241B88N_02B0_25B57X</t>
+          <t>241B97N_02B0_25B57X</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02B24147_AF_001</t>
+          <t>02B24154_AF_001</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45602</v>
+        <v>45674</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -543,11 +543,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>101449212.0</t>
+          <t>101449165.0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85034.39999999999</v>
+        <v>83958.48</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -576,31 +576,64 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>101449212.0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85034.39999999999</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>241B88N_02B0_25B57X</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>02B24147_AF_001</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ReqC</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>G164</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>101442396.0</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>609000</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>241B88N_02B0_25B57X</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>02B24147_AF_001</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>45568</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ReqC</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>G164</t>
         </is>
